--- a/资产负债表/300925.xlsx
+++ b/资产负债表/300925.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -784,50 +784,62 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-23 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>861317050.15</v>
+        <v>786079324.92</v>
       </c>
       <c r="P2" t="n">
-        <v>17946285.92</v>
+        <v>15568801.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>102225108.6</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>135638478.24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16.0342927059</v>
+      </c>
       <c r="S2" t="n">
-        <v>604173005.25</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>527638005.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45.0499947807</v>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>365913349.58</v>
+        <v>325856225.71</v>
       </c>
       <c r="X2" t="n">
-        <v>9356666.529999999</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>13303382.44</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>176.9790674346</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>495403700.57</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>460223099.21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>27.7101796972</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>42.1393293087</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>69.1273810531</v>
+      </c>
       <c r="AF2" t="n">
-        <v>227.2813844462</v>
+        <v>234.2191464938</v>
       </c>
       <c r="AG2" t="n">
-        <v>42.4830031539</v>
+        <v>41.4533515104</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300925.xlsx
+++ b/资产负债表/300925.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,57 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>786079324.92</v>
+        <v>255745745.84</v>
       </c>
       <c r="P2" t="n">
-        <v>15568801.25</v>
+        <v>3517204.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>135638478.24</v>
+        <v>36864383.82</v>
       </c>
       <c r="R2" t="n">
-        <v>16.0342927059</v>
+        <v>-53.4232197125</v>
       </c>
       <c r="S2" t="n">
-        <v>527638005.02</v>
+        <v>140674934.29</v>
       </c>
       <c r="T2" t="n">
-        <v>45.0499947807</v>
+        <v>48.7144504492</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>325856225.71</v>
+        <v>84420860.90000001</v>
       </c>
       <c r="X2" t="n">
-        <v>13303382.44</v>
+        <v>3773010.74</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.9790674346</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>132.9863637168</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>289760.28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-64.6233008448</v>
+      </c>
       <c r="AB2" t="n">
-        <v>460223099.21</v>
+        <v>171324884.94</v>
       </c>
       <c r="AC2" t="n">
-        <v>27.7101796972</v>
+        <v>73.63705071859999</v>
       </c>
       <c r="AD2" t="n">
-        <v>42.1393293087</v>
+        <v>38.4444189546</v>
       </c>
       <c r="AE2" t="n">
-        <v>69.1273810531</v>
+        <v>-1.9043155876</v>
       </c>
       <c r="AF2" t="n">
-        <v>234.2191464938</v>
+        <v>295.5228509995</v>
       </c>
       <c r="AG2" t="n">
-        <v>41.4533515104</v>
+        <v>33.0096833567</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300925.xlsx
+++ b/资产负债表/300925.xlsx
@@ -789,61 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>255745745.84</v>
+        <v>397752408.35</v>
       </c>
       <c r="P2" t="n">
-        <v>3517204.87</v>
+        <v>6993630.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>36864383.82</v>
+        <v>79108780.79000001</v>
       </c>
       <c r="R2" t="n">
-        <v>-53.4232197125</v>
+        <v>114.5940677492</v>
       </c>
       <c r="S2" t="n">
-        <v>140674934.29</v>
+        <v>246049106.42</v>
       </c>
       <c r="T2" t="n">
-        <v>48.7144504492</v>
+        <v>74.9061463308</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>84420860.90000001</v>
+        <v>161261585.08</v>
       </c>
       <c r="X2" t="n">
-        <v>3773010.74</v>
+        <v>6408553.67</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.9863637168</v>
+        <v>69.85251597769999</v>
       </c>
       <c r="Z2" t="n">
-        <v>289760.28</v>
+        <v>262575.04</v>
       </c>
       <c r="AA2" t="n">
-        <v>-64.6233008448</v>
+        <v>-9.3819760251</v>
       </c>
       <c r="AB2" t="n">
-        <v>171324884.94</v>
+        <v>236490823.27</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.63705071859999</v>
+        <v>38.0364699225</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.4444189546</v>
+        <v>55.52650037</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.9043155876</v>
+        <v>91.02101466489999</v>
       </c>
       <c r="AF2" t="n">
-        <v>295.5228509995</v>
+        <v>240.2810524328</v>
       </c>
       <c r="AG2" t="n">
-        <v>33.0096833567</v>
+        <v>40.5432077078</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
